--- a/Packages/cn.etetet.wow/Excel/TextConfig.xlsx
+++ b/Packages/cn.etetet.wow/Excel/TextConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Id</t>
   </si>
@@ -50,6 +50,21 @@
   </si>
   <si>
     <t>技能施放距离不够</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>SpellCast_NotSelectTarget</t>
+  </si>
+  <si>
+    <t>没有选择目标</t>
+  </si>
+  <si>
+    <t>SpellCast_TargetTooFar</t>
+  </si>
+  <si>
+    <t>目标距离太远</t>
   </si>
 </sst>
 </file>
@@ -57,12 +72,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,26 +86,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,7 +143,51 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,80 +201,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -194,47 +209,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,187 +277,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,6 +468,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -464,11 +504,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,16 +531,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,30 +563,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -549,165 +571,167 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1057,13 +1081,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9.61061946902655" style="1" customWidth="1"/>
@@ -1072,87 +1096,146 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="13.85" spans="1:10">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="15" spans="1:4">
+    <row r="2" s="1" customFormat="1" ht="13.85" spans="1:10">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="15.75" spans="1:6">
+    <row r="3" s="1" customFormat="1" ht="14.6" spans="1:10">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="15.75" spans="1:6">
+    <row r="4" s="1" customFormat="1" ht="14.6" spans="1:10">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="15.75" spans="1:6">
+    <row r="5" s="1" customFormat="1" ht="14.6" spans="1:10">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15" spans="2:11">
+    <row r="6" s="1" customFormat="1" ht="15" spans="1:11">
+      <c r="A6" s="4"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="2"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" ht="13.85" spans="1:10">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" ht="13.85" spans="1:10">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="6">
+        <v>10002</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Packages/cn.etetet.wow/Excel/TextConfig.xlsx
+++ b/Packages/cn.etetet.wow/Excel/TextConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Id</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t>目标距离太远</t>
+  </si>
+  <si>
+    <t>10003</t>
+  </si>
+  <si>
+    <t>SpellCast_SpellInCD</t>
+  </si>
+  <si>
+    <t>技能在冷却中</t>
   </si>
 </sst>
 </file>
@@ -72,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -111,6 +120,52 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -118,9 +173,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,7 +243,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,120 +258,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,187 +286,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,9 +482,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,6 +505,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,17 +563,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -544,175 +577,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1081,13 +1090,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9.61061946902655" style="1" customWidth="1"/>
@@ -1237,6 +1246,24 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
+    <row r="9" ht="13.85" spans="1:10">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Packages/cn.etetet.wow/Excel/TextConfig.xlsx
+++ b/Packages/cn.etetet.wow/Excel/TextConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -49,6 +49,9 @@
     <t>SpellCast_DistanceNotEnought</t>
   </si>
   <si>
+    <t>技能施放距离不够！</t>
+  </si>
+  <si>
     <t>技能施放距离不够</t>
   </si>
   <si>
@@ -58,13 +61,13 @@
     <t>SpellCast_NotSelectTarget</t>
   </si>
   <si>
-    <t>没有选择目标</t>
+    <t>没有选择目标！</t>
   </si>
   <si>
     <t>SpellCast_TargetTooFar</t>
   </si>
   <si>
-    <t>目标距离太远</t>
+    <t>目标距离太远！</t>
   </si>
   <si>
     <t>10003</t>
@@ -73,7 +76,25 @@
     <t>SpellCast_SpellInCD</t>
   </si>
   <si>
-    <t>技能在冷却中</t>
+    <t>技能在冷却中！</t>
+  </si>
+  <si>
+    <t>10004</t>
+  </si>
+  <si>
+    <t>SpellCast_MPNotEnought</t>
+  </si>
+  <si>
+    <t>魔法值不足！</t>
+  </si>
+  <si>
+    <t>10005</t>
+  </si>
+  <si>
+    <t>SpellCast_HPNotEnought</t>
+  </si>
+  <si>
+    <t>生命值不足！</t>
   </si>
 </sst>
 </file>
@@ -81,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -120,33 +141,107 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,51 +253,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -218,17 +269,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,30 +284,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,187 +307,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,12 +501,40 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -502,17 +551,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -534,36 +576,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -577,151 +589,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1090,10 +1111,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1202,7 +1223,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -1214,13 +1235,13 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="4"/>
@@ -1235,10 +1256,10 @@
         <v>10002</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="4"/>
@@ -1250,19 +1271,55 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
+    </row>
+    <row r="10" ht="13.85" spans="1:10">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" ht="13.85" spans="1:10">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
